--- a/doc/ガントチャート/ガントチャート.xlsx
+++ b/doc/ガントチャート/ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE5DAD7-6E87-487F-AD33-87837841E6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824A7B51-2AF3-426E-8E30-BB729DF17F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">【設定】!$A$1:$AM$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">内容!$A$1:$ET$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">内容!$A$1:$FF$22</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -425,6 +425,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,9 +470,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,18 +479,12 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -475,24 +493,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,346 +1171,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:146" ht="27" customHeight="1">
-      <c r="A1" s="16" t="str">
+      <c r="A1" s="25" t="str">
         <f>【設定】!$F$2</f>
         <v>ガントチャート</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="16" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="19" t="str">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="28" t="str">
         <f>【設定】!$F$4</f>
         <v>○○システム構築</v>
       </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="16" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="19" t="str">
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="28" t="str">
         <f>【設定】!$F$5</f>
         <v>○○システム</v>
       </c>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="21"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:146" ht="27" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="16" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="28">
         <v>0.1</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="16" t="s">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="23">
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="31">
         <v>44949</v>
       </c>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="16" t="s">
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="19" t="s">
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="21"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:146" ht="18" customHeight="1"/>
     <row r="4" spans="1:146" ht="18" customHeight="1"/>
     <row r="5" spans="1:146" ht="18" customHeight="1"/>
     <row r="6" spans="1:146" ht="36" customHeight="1">
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="35">
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="19">
         <f>【設定】!$AJ$2</f>
         <v>45261</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="38">
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="16">
         <f>U6+【設定】!$AJ$5</f>
         <v>45268</v>
       </c>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="38">
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="16">
         <f>AB6+【設定】!$AJ$5</f>
         <v>45275</v>
       </c>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="38">
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="16">
         <f>AI6+【設定】!$AJ$5</f>
         <v>45282</v>
       </c>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="39"/>
-      <c r="AT6" s="39"/>
-      <c r="AU6" s="39"/>
-      <c r="AV6" s="40"/>
-      <c r="AW6" s="38">
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="16">
         <f>AP6+【設定】!$AJ$5</f>
         <v>45289</v>
       </c>
-      <c r="AX6" s="39"/>
-      <c r="AY6" s="39"/>
-      <c r="AZ6" s="39"/>
-      <c r="BA6" s="39"/>
-      <c r="BB6" s="39"/>
-      <c r="BC6" s="40"/>
-      <c r="BD6" s="38">
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="16">
         <f>AW6+【設定】!$AJ$5</f>
         <v>45296</v>
       </c>
-      <c r="BE6" s="39"/>
-      <c r="BF6" s="39"/>
-      <c r="BG6" s="39"/>
-      <c r="BH6" s="39"/>
-      <c r="BI6" s="39"/>
-      <c r="BJ6" s="40"/>
-      <c r="BK6" s="38">
+      <c r="BE6" s="17"/>
+      <c r="BF6" s="17"/>
+      <c r="BG6" s="17"/>
+      <c r="BH6" s="17"/>
+      <c r="BI6" s="17"/>
+      <c r="BJ6" s="18"/>
+      <c r="BK6" s="16">
         <f>BD6+【設定】!$AJ$5</f>
         <v>45303</v>
       </c>
-      <c r="BL6" s="39"/>
-      <c r="BM6" s="39"/>
-      <c r="BN6" s="39"/>
-      <c r="BO6" s="39"/>
-      <c r="BP6" s="39"/>
-      <c r="BQ6" s="40"/>
-      <c r="BR6" s="38">
+      <c r="BL6" s="17"/>
+      <c r="BM6" s="17"/>
+      <c r="BN6" s="17"/>
+      <c r="BO6" s="17"/>
+      <c r="BP6" s="17"/>
+      <c r="BQ6" s="18"/>
+      <c r="BR6" s="16">
         <f>BK6+【設定】!$AJ$5</f>
         <v>45310</v>
       </c>
-      <c r="BS6" s="39"/>
-      <c r="BT6" s="39"/>
-      <c r="BU6" s="39"/>
-      <c r="BV6" s="39"/>
-      <c r="BW6" s="39"/>
-      <c r="BX6" s="40"/>
-      <c r="BY6" s="38">
+      <c r="BS6" s="17"/>
+      <c r="BT6" s="17"/>
+      <c r="BU6" s="17"/>
+      <c r="BV6" s="17"/>
+      <c r="BW6" s="17"/>
+      <c r="BX6" s="18"/>
+      <c r="BY6" s="16">
         <f>BR6+【設定】!$AJ$5</f>
         <v>45317</v>
       </c>
-      <c r="BZ6" s="39"/>
-      <c r="CA6" s="39"/>
-      <c r="CB6" s="39"/>
-      <c r="CC6" s="39"/>
-      <c r="CD6" s="39"/>
-      <c r="CE6" s="40"/>
-      <c r="CF6" s="38">
+      <c r="BZ6" s="17"/>
+      <c r="CA6" s="17"/>
+      <c r="CB6" s="17"/>
+      <c r="CC6" s="17"/>
+      <c r="CD6" s="17"/>
+      <c r="CE6" s="18"/>
+      <c r="CF6" s="16">
         <f>BY6+【設定】!$AJ$5</f>
         <v>45324</v>
       </c>
-      <c r="CG6" s="39"/>
-      <c r="CH6" s="39"/>
-      <c r="CI6" s="39"/>
-      <c r="CJ6" s="39"/>
-      <c r="CK6" s="39"/>
-      <c r="CL6" s="40"/>
-      <c r="CM6" s="38">
+      <c r="CG6" s="17"/>
+      <c r="CH6" s="17"/>
+      <c r="CI6" s="17"/>
+      <c r="CJ6" s="17"/>
+      <c r="CK6" s="17"/>
+      <c r="CL6" s="18"/>
+      <c r="CM6" s="16">
         <f>CF6+【設定】!$AJ$5</f>
         <v>45331</v>
       </c>
-      <c r="CN6" s="39"/>
-      <c r="CO6" s="39"/>
-      <c r="CP6" s="39"/>
-      <c r="CQ6" s="39"/>
-      <c r="CR6" s="39"/>
-      <c r="CS6" s="40"/>
-      <c r="CT6" s="38">
+      <c r="CN6" s="17"/>
+      <c r="CO6" s="17"/>
+      <c r="CP6" s="17"/>
+      <c r="CQ6" s="17"/>
+      <c r="CR6" s="17"/>
+      <c r="CS6" s="18"/>
+      <c r="CT6" s="16">
         <f>CM6+【設定】!$AJ$5</f>
         <v>45338</v>
       </c>
-      <c r="CU6" s="39"/>
-      <c r="CV6" s="39"/>
-      <c r="CW6" s="39"/>
-      <c r="CX6" s="39"/>
-      <c r="CY6" s="39"/>
-      <c r="CZ6" s="40"/>
-      <c r="DA6" s="38">
+      <c r="CU6" s="17"/>
+      <c r="CV6" s="17"/>
+      <c r="CW6" s="17"/>
+      <c r="CX6" s="17"/>
+      <c r="CY6" s="17"/>
+      <c r="CZ6" s="18"/>
+      <c r="DA6" s="16">
         <f>CT6+【設定】!$AJ$5</f>
         <v>45345</v>
       </c>
-      <c r="DB6" s="39"/>
-      <c r="DC6" s="39"/>
-      <c r="DD6" s="39"/>
-      <c r="DE6" s="39"/>
-      <c r="DF6" s="39"/>
-      <c r="DG6" s="40"/>
-      <c r="DH6" s="38">
+      <c r="DB6" s="17"/>
+      <c r="DC6" s="17"/>
+      <c r="DD6" s="17"/>
+      <c r="DE6" s="17"/>
+      <c r="DF6" s="17"/>
+      <c r="DG6" s="18"/>
+      <c r="DH6" s="16">
         <f>DA6+【設定】!$AJ$5</f>
         <v>45352</v>
       </c>
-      <c r="DI6" s="39"/>
-      <c r="DJ6" s="39"/>
-      <c r="DK6" s="39"/>
-      <c r="DL6" s="39"/>
-      <c r="DM6" s="39"/>
-      <c r="DN6" s="40"/>
-      <c r="DO6" s="38">
+      <c r="DI6" s="17"/>
+      <c r="DJ6" s="17"/>
+      <c r="DK6" s="17"/>
+      <c r="DL6" s="17"/>
+      <c r="DM6" s="17"/>
+      <c r="DN6" s="18"/>
+      <c r="DO6" s="16">
         <f>DH6+【設定】!$AJ$5</f>
         <v>45359</v>
       </c>
-      <c r="DP6" s="39"/>
-      <c r="DQ6" s="39"/>
-      <c r="DR6" s="39"/>
-      <c r="DS6" s="39"/>
-      <c r="DT6" s="39"/>
-      <c r="DU6" s="40"/>
-      <c r="DV6" s="38">
+      <c r="DP6" s="17"/>
+      <c r="DQ6" s="17"/>
+      <c r="DR6" s="17"/>
+      <c r="DS6" s="17"/>
+      <c r="DT6" s="17"/>
+      <c r="DU6" s="18"/>
+      <c r="DV6" s="16">
         <f>DO6+【設定】!$AJ$5</f>
         <v>45366</v>
       </c>
-      <c r="DW6" s="39"/>
-      <c r="DX6" s="39"/>
-      <c r="DY6" s="39"/>
-      <c r="DZ6" s="39"/>
-      <c r="EA6" s="39"/>
-      <c r="EB6" s="40"/>
-      <c r="EC6" s="38">
+      <c r="DW6" s="17"/>
+      <c r="DX6" s="17"/>
+      <c r="DY6" s="17"/>
+      <c r="DZ6" s="17"/>
+      <c r="EA6" s="17"/>
+      <c r="EB6" s="18"/>
+      <c r="EC6" s="16">
         <f>DV6+【設定】!$AJ$5</f>
         <v>45373</v>
       </c>
-      <c r="ED6" s="39"/>
-      <c r="EE6" s="39"/>
-      <c r="EF6" s="39"/>
-      <c r="EG6" s="39"/>
-      <c r="EH6" s="39"/>
-      <c r="EI6" s="40"/>
-      <c r="EJ6" s="38">
+      <c r="ED6" s="17"/>
+      <c r="EE6" s="17"/>
+      <c r="EF6" s="17"/>
+      <c r="EG6" s="17"/>
+      <c r="EH6" s="17"/>
+      <c r="EI6" s="18"/>
+      <c r="EJ6" s="16">
         <f>EC6+【設定】!$AJ$5</f>
         <v>45380</v>
       </c>
-      <c r="EK6" s="39"/>
-      <c r="EL6" s="39"/>
-      <c r="EM6" s="39"/>
-      <c r="EN6" s="39"/>
-      <c r="EO6" s="39"/>
-      <c r="EP6" s="40"/>
+      <c r="EK6" s="17"/>
+      <c r="EL6" s="17"/>
+      <c r="EM6" s="17"/>
+      <c r="EN6" s="17"/>
+      <c r="EO6" s="17"/>
+      <c r="EP6" s="18"/>
     </row>
     <row r="7" spans="1:146" ht="36" customHeight="1">
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
       <c r="U7" s="13"/>
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
@@ -1639,27 +1639,27 @@
       <c r="EP7" s="15"/>
     </row>
     <row r="8" spans="1:146" ht="36" customHeight="1">
-      <c r="C8" s="26">
+      <c r="C8" s="23">
         <f>ROW()-ROW($C$7)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
       <c r="U8" s="13"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
@@ -1788,27 +1788,27 @@
       <c r="EP8" s="15"/>
     </row>
     <row r="9" spans="1:146" ht="36" customHeight="1">
-      <c r="C9" s="26">
+      <c r="C9" s="23">
         <f t="shared" ref="C9:C17" si="0">ROW()-ROW($C$7)</f>
         <v>2</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
       <c r="U9" s="13"/>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
@@ -1937,27 +1937,27 @@
       <c r="EP9" s="15"/>
     </row>
     <row r="10" spans="1:146" ht="36" customHeight="1">
-      <c r="C10" s="26">
+      <c r="C10" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
       <c r="U10" s="13"/>
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
@@ -2086,27 +2086,27 @@
       <c r="EP10" s="15"/>
     </row>
     <row r="11" spans="1:146" ht="36" customHeight="1">
-      <c r="C11" s="26">
+      <c r="C11" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
       <c r="U11" s="13"/>
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
@@ -2235,27 +2235,27 @@
       <c r="EP11" s="15"/>
     </row>
     <row r="12" spans="1:146" ht="36" customHeight="1">
-      <c r="C12" s="26">
+      <c r="C12" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
       <c r="U12" s="13"/>
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
@@ -2384,27 +2384,27 @@
       <c r="EP12" s="15"/>
     </row>
     <row r="13" spans="1:146" ht="36" customHeight="1">
-      <c r="C13" s="26">
+      <c r="C13" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
       <c r="U13" s="13"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
@@ -2533,27 +2533,27 @@
       <c r="EP13" s="15"/>
     </row>
     <row r="14" spans="1:146" ht="36" customHeight="1">
-      <c r="C14" s="26">
+      <c r="C14" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
       <c r="U14" s="13"/>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
@@ -2682,27 +2682,27 @@
       <c r="EP14" s="15"/>
     </row>
     <row r="15" spans="1:146" ht="36" customHeight="1">
-      <c r="C15" s="26">
+      <c r="C15" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
       <c r="U15" s="13"/>
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
@@ -2831,27 +2831,27 @@
       <c r="EP15" s="15"/>
     </row>
     <row r="16" spans="1:146" ht="36" customHeight="1">
-      <c r="C16" s="26">
+      <c r="C16" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
       <c r="U16" s="13"/>
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
@@ -2980,27 +2980,27 @@
       <c r="EP16" s="15"/>
     </row>
     <row r="17" spans="3:146" ht="36" customHeight="1">
-      <c r="C17" s="26">
+      <c r="C17" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
       <c r="U17" s="13"/>
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
@@ -3130,6 +3130,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AE1:AN1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="AP6:AV6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:N14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="DV6:EB6"/>
+    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="O14:T14"/>
     <mergeCell ref="EC6:EI6"/>
     <mergeCell ref="EJ6:EP6"/>
     <mergeCell ref="U6:AA6"/>
@@ -3146,60 +3196,10 @@
     <mergeCell ref="DA6:DG6"/>
     <mergeCell ref="DH6:DN6"/>
     <mergeCell ref="DO6:DU6"/>
-    <mergeCell ref="DV6:EB6"/>
-    <mergeCell ref="O15:T15"/>
-    <mergeCell ref="O16:T16"/>
-    <mergeCell ref="O17:T17"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:N17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:N16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:N15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:N14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:N10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="AP6:AV6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="AE1:AN1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="74" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3227,76 +3227,76 @@
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AM1"/>
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:39" ht="19.8">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="28" t="str">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="30"/>
-      <c r="Z1" s="22" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="37"/>
+      <c r="Z1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AJ1" s="22" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AJ1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
     </row>
     <row r="2" spans="1:39" ht="19.8">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="28" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="30"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="37"/>
       <c r="Z2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3304,38 +3304,38 @@
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="7"/>
-      <c r="AJ2" s="32">
+      <c r="AJ2" s="38">
         <v>45261</v>
       </c>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="34"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="40"/>
     </row>
     <row r="3" spans="1:39" ht="19.8">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="28" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="30"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="37"/>
       <c r="Z3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3345,30 +3345,30 @@
       <c r="AD3" s="4"/>
     </row>
     <row r="4" spans="1:39" ht="19.8">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="28" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="30"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="37"/>
       <c r="Z4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3376,38 +3376,38 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="4"/>
-      <c r="AJ4" s="22" t="s">
+      <c r="AJ4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
     </row>
     <row r="5" spans="1:39" ht="19.8">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="28" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="30"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="37"/>
       <c r="Z5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3576,6 +3576,9 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AJ4:AM4"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="F4:T4"/>
@@ -3587,9 +3590,6 @@
     <mergeCell ref="F1:T1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:T3"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AJ4:AM4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -3598,6 +3598,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="55" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>